--- a/results/main/full_results_observed_cluster.xlsx
+++ b/results/main/full_results_observed_cluster.xlsx
@@ -971,16 +971,16 @@
         <v>0.352607761273582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.281728705008616</v>
+        <v>0.299884212478717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.423486817538548</v>
+        <v>0.405331310068447</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00341369239446652</v>
+        <v>-0.0028946039655305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0361627838086562</v>
+        <v>0.0268997697932983</v>
       </c>
     </row>
     <row r="3">
@@ -994,16 +994,16 @@
         <v>0.241988530998507</v>
       </c>
       <c r="D3" t="n">
-        <v>0.178897112819118</v>
+        <v>0.195218193880211</v>
       </c>
       <c r="E3" t="n">
-        <v>0.305079949177896</v>
+        <v>0.288758868116803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0169029420289647</v>
+        <v>-0.00184157646055815</v>
       </c>
       <c r="G3" t="n">
-        <v>0.032189499071117</v>
+        <v>0.0238624168970899</v>
       </c>
     </row>
     <row r="4">
@@ -1017,16 +1017,16 @@
         <v>0.433008598882964</v>
       </c>
       <c r="D4" t="n">
-        <v>0.371201511352201</v>
+        <v>0.383058767492031</v>
       </c>
       <c r="E4" t="n">
-        <v>0.494815686413728</v>
+        <v>0.482958430273897</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0253736361871546</v>
+        <v>-0.00243416950137019</v>
       </c>
       <c r="G4" t="n">
-        <v>0.031534228332022</v>
+        <v>0.0254846078525168</v>
       </c>
     </row>
     <row r="5">
@@ -1040,16 +1040,16 @@
         <v>0.123639364629483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0555243810344971</v>
+        <v>0.07016645861601</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191754348224468</v>
+        <v>0.177112270642956</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0022002682052736</v>
+        <v>-0.00430274190057132</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0347525426505029</v>
+        <v>0.0272820949048331</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1063,16 @@
         <v>0.0743616831529633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.014487141604534</v>
+        <v>0.0196314615567271</v>
       </c>
       <c r="E6" t="n">
-        <v>0.134236224701393</v>
+        <v>0.129091904749199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0197352740698389</v>
+        <v>-0.00451263285412443</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0305482354838925</v>
+        <v>0.0279235824470593</v>
       </c>
     </row>
     <row r="7">
@@ -1086,16 +1086,16 @@
         <v>0.198241513157853</v>
       </c>
       <c r="D7" t="n">
-        <v>0.133416474225429</v>
+        <v>0.137878614580662</v>
       </c>
       <c r="E7" t="n">
-        <v>0.263066552090276</v>
+        <v>0.258604411735044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0300005918914066</v>
+        <v>-0.000770376762267614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0330739994553181</v>
+        <v>0.0307973972332607</v>
       </c>
     </row>
     <row r="8">
@@ -1109,16 +1109,16 @@
         <v>0.167345231899537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0735654675997495</v>
+        <v>0.0978387504233838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.261124996199325</v>
+        <v>0.236851713375691</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00964776622359111</v>
+        <v>0.000278136555685943</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0478468185203</v>
+        <v>0.035462490549058</v>
       </c>
     </row>
     <row r="9">
@@ -1132,16 +1132,16 @@
         <v>0.156193750226393</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0744713900332647</v>
+        <v>0.0907822240865411</v>
       </c>
       <c r="E9" t="n">
-        <v>0.237916110419522</v>
+        <v>0.221605276366246</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00836337531413109</v>
+        <v>-0.00483062708327292</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0416950817311881</v>
+        <v>0.0333732276223736</v>
       </c>
     </row>
     <row r="10">
@@ -1155,16 +1155,16 @@
         <v>0.221990862443023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.142237280792854</v>
+        <v>0.155837072726262</v>
       </c>
       <c r="E10" t="n">
-        <v>0.301744444093193</v>
+        <v>0.288144652159785</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0175497743625003</v>
+        <v>-0.00481561623999976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0406906028827394</v>
+        <v>0.0337519335289598</v>
       </c>
     </row>
     <row r="11">
@@ -1178,16 +1178,16 @@
         <v>0.231078807434119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0746713437077854</v>
+        <v>0.0913416363818949</v>
       </c>
       <c r="E11" t="n">
-        <v>0.387486271160453</v>
+        <v>0.370815978486343</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0144195727160491</v>
+        <v>-0.00864538559713109</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0797997263909866</v>
+        <v>0.071294475026645</v>
       </c>
     </row>
     <row r="12">
@@ -1201,16 +1201,16 @@
         <v>0.203320776725539</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0507318491056568</v>
+        <v>0.0700554468988439</v>
       </c>
       <c r="E12" t="n">
-        <v>0.355909704345421</v>
+        <v>0.336586106552234</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00507632440683689</v>
+        <v>-0.00927909424664185</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0778514936836133</v>
+        <v>0.0679925152177015</v>
       </c>
     </row>
     <row r="13">
@@ -1224,16 +1224,16 @@
         <v>0.238342915246693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0850233585324014</v>
+        <v>0.102374803560793</v>
       </c>
       <c r="E13" t="n">
-        <v>0.391662471960984</v>
+        <v>0.374311026932593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0145674769943623</v>
+        <v>-0.0114784240785799</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0782242636297405</v>
+        <v>0.0693714855540307</v>
       </c>
     </row>
     <row r="14">
@@ -1247,16 +1247,16 @@
         <v>0.143215455962746</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0785905386571025</v>
+        <v>0.0941223041295222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.207840373268389</v>
+        <v>0.192308607795969</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.00269570081867839</v>
+        <v>-0.00168303603910866</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0329718965845117</v>
+        <v>0.0250475264455221</v>
       </c>
     </row>
     <row r="15">
@@ -1270,16 +1270,16 @@
         <v>0.129057508936034</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0591257890568341</v>
+        <v>0.0791132385922413</v>
       </c>
       <c r="E15" t="n">
-        <v>0.198989228815235</v>
+        <v>0.179001779279827</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0171616286142322</v>
+        <v>-0.00448644789256815</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0356794489179593</v>
+        <v>0.0254817705835679</v>
       </c>
     </row>
     <row r="16">
@@ -1293,16 +1293,16 @@
         <v>0.169739522427088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.095909708591398</v>
+        <v>0.114317161007836</v>
       </c>
       <c r="E16" t="n">
-        <v>0.243569336262778</v>
+        <v>0.22516188384634</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0306405778197015</v>
+        <v>-0.00319420306225574</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0376682723651479</v>
+        <v>0.0282767150098225</v>
       </c>
     </row>
   </sheetData>
